--- a/ocms/src/test/resources/TestData/OCMAgentInteractionReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAgentInteractionReportData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD42C0A-FA6E-4B61-8221-B7F2777EF3E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEC9D2E-4905-4B69-B008-5784EA500677}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6D2C06-D0AE-4F83-B750-F2E25CDCB399}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ocms/src/test/resources/TestData/OCMAgentInteractionReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAgentInteractionReportData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEC9D2E-4905-4B69-B008-5784EA500677}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCD651F-AAD7-4423-BC2A-84F26CB8190A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="50">
   <si>
     <t>Report Channel</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Single Date</t>
   </si>
   <si>
-    <t>random.str</t>
-  </si>
-  <si>
     <t>Date Range</t>
   </si>
   <si>
@@ -92,28 +89,49 @@
     <t xml:space="preserve">Starts with </t>
   </si>
   <si>
-    <t>agent</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
     <t>Report Name1</t>
   </si>
   <si>
     <t>Agent Interaction Report</t>
   </si>
   <si>
-    <t>Media Agent3</t>
+    <t>Agent ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ends with </t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Is not equal to</t>
+  </si>
+  <si>
+    <t>Does not contain</t>
+  </si>
+  <si>
+    <t>Starts with</t>
+  </si>
+  <si>
+    <t>Ends with</t>
+  </si>
+  <si>
+    <t>Supervisor Name</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>Search String1</t>
+  </si>
+  <si>
+    <t>Search String2</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>Query</t>
-  </si>
-  <si>
-    <t>15-04-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>14-04-2020 00:00:00</t>
   </si>
   <si>
     <t>SELECT M.[AgentID] as [Agent ID],A.[AgentName] as [Agent Name],A.[SupervisorName] as [Supervisor Name],[Channel],[Direction],[DNIS] as [Local Party],
@@ -127,7 +145,7 @@
 case when [IsTransfered]=1 Then 'true' when [IsTransfered]=0 then 'false' end as [Is Transfered], 
 case when [TPINTransferReconnected]=1 then 'true' when TPinTransferReconnected=0 then 'false' end as [TPIN Transfer Reconnected],[SubChannel] as [Sub Channel],
 [SubSessionID] as [Sub Session ID],[InteractionID] as [Interaction ID],[Skill],[SkillName] as [Skill Name],
---[DNISName] as [DNIS Name],
+isnull([DNISName],'') as [DNIS Name],
 [TransferedTo] as [Transfered To],[ConferencedTo] as [Conferenced To],
 [ConferenceToAgentList] as [Conference To Agent List],[TransferToAgent] as [Transfer To Agent],
 [TransferConferenceFromAgent] as [Transfer Conference From Agent] ,[TransferConferenceFromInteraction] as [Transfer Conference From Interaction],
@@ -178,17 +196,65 @@
 							where 1=1 AND IH.ID IN (SELECT MIN(ID) FROM GBL_InteractionHistory WHERE SESSIONID=T.SessionId AND CLID IS NOT NULL)
 							AND  ClosedDateTime&gt;='ReportBeforeDate' AND ClosedDateTime&lt;='ReportAfterDate') M
                             INNER JOIN  fn_AgentHierarchy('na','1','1') A  ON A.AgentId=M.AgentID
-							order by M.[ClosedDateTime]</t>
+							order by M.[ClosedDateTime];</t>
+  </si>
+  <si>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>01-03-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>01-02-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>01-01-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>30-04-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>Hitesh Shetty</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>50011</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -214,10 +280,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -281,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -316,7 +388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -501,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,10 +584,11 @@
     <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,19 +601,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -551,10 +630,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -566,9 +645,10 @@
     <col min="6" max="6" width="15.54296875" customWidth="1"/>
     <col min="7" max="7" width="15.453125" customWidth="1"/>
     <col min="8" max="8" width="19.453125" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,136 +659,221 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
+      <c r="H8" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -717,9 +882,10 @@
     <col min="2" max="2" width="25.7265625" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,19 +898,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -754,10 +926,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -765,11 +937,12 @@
     <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.26953125" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="26.1796875" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,27 +953,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -810,22 +989,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -839,24 +1019,30 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -866,22 +1052,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,33 +1079,39 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -928,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -943,10 +1136,12 @@
     <col min="5" max="6" width="19.81640625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="24.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,74 +1152,235 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
       <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
       </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6D2C06-D0AE-4F83-B750-F2E25CDCB399}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.90625" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="55.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1038,33 +1394,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>29</v>
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/OCMAgentInteractionReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAgentInteractionReportData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCD651F-AAD7-4423-BC2A-84F26CB8190A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D56E680-35F1-4051-BF3C-ADFDF11D2722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="51">
   <si>
     <t>Report Channel</t>
   </si>
@@ -95,9 +95,27 @@
     <t>Agent Interaction Report</t>
   </si>
   <si>
+    <t>17-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>18-04-2020 00:00:00</t>
+  </si>
+  <si>
     <t>Agent ID</t>
   </si>
   <si>
+    <t>6666</t>
+  </si>
+  <si>
+    <t>X Y</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ends with </t>
   </si>
   <si>
@@ -110,6 +128,9 @@
     <t>Does not contain</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>Starts with</t>
   </si>
   <si>
@@ -122,6 +143,9 @@
     <t>Channel</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
     <t>Search String1</t>
   </si>
   <si>
@@ -129,6 +153,12 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Text</t>
   </si>
   <si>
     <t>Query</t>
@@ -199,62 +229,29 @@
 							order by M.[ClosedDateTime];</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>DeleteReason</t>
   </si>
   <si>
     <t>Delete</t>
   </si>
   <si>
-    <t>01-03-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>01-02-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>01-01-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>30-04-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>Hitesh Shetty</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>50011</t>
-  </si>
-  <si>
-    <t>Voice</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>V</t>
+    <t>15-03-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>16-03-2021 00:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -576,7 +573,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,7 +599,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -616,10 +613,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -630,10 +627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -674,7 +671,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -688,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -700,10 +697,10 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -717,10 +714,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -729,7 +726,7 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -743,10 +740,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -755,7 +752,7 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -769,19 +766,19 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -795,19 +792,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -821,49 +818,22 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>46</v>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -873,7 +843,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -899,7 +869,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -913,10 +883,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -929,7 +899,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -959,7 +929,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -973,13 +943,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -992,7 +962,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1022,7 +992,7 @@
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1036,13 +1006,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1054,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1088,7 +1058,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1102,16 +1072,16 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1123,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1170,10 +1140,10 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1187,10 +1157,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -1202,13 +1172,13 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1222,10 +1192,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -1234,13 +1204,13 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
         <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1254,22 +1224,22 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1283,10 +1253,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -1295,10 +1265,10 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -1312,22 +1282,22 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1341,10 +1311,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -1353,14 +1323,13 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1400,7 +1369,7 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
@@ -1414,13 +1383,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/OCMAgentInteractionReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAgentInteractionReportData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D56E680-35F1-4051-BF3C-ADFDF11D2722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FF45B2-2CB2-4594-8FCF-45336CD4D1AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="47">
   <si>
     <t>Report Channel</t>
   </si>
@@ -95,33 +95,12 @@
     <t>Agent Interaction Report</t>
   </si>
   <si>
-    <t>17-04-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>18-04-2020 00:00:00</t>
-  </si>
-  <si>
     <t>Agent ID</t>
   </si>
   <si>
-    <t>6666</t>
-  </si>
-  <si>
-    <t>X Y</t>
-  </si>
-  <si>
-    <t>ma</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ends with </t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>Is not equal to</t>
   </si>
   <si>
@@ -143,22 +122,10 @@
     <t>Channel</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>Search String1</t>
   </si>
   <si>
     <t>Search String2</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Text</t>
   </si>
   <si>
     <t>Query</t>
@@ -229,26 +196,47 @@
 							order by M.[ClosedDateTime];</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>DeleteReason</t>
   </si>
   <si>
     <t>Delete</t>
   </si>
   <si>
-    <t>15-03-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>16-03-2021 00:00:00</t>
+    <t>21-06-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>14-06-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>23-06-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>Email Agent1</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>50103</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Email Team</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,13 +244,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -277,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -288,8 +288,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,7 +578,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,20 +591,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
+      <c r="E1" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -613,10 +618,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -629,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -646,32 +651,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>47</v>
+      <c r="I1" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -685,10 +690,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -697,10 +702,10 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -714,10 +719,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -726,7 +731,7 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -740,10 +745,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -752,7 +757,7 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -766,10 +771,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -778,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -792,19 +797,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -818,22 +823,23 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -843,7 +849,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -856,20 +862,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
+      <c r="E1" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -883,10 +889,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +905,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -913,23 +919,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
+      <c r="F1" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -943,13 +949,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -962,7 +968,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -976,23 +982,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
+      <c r="F1" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1006,13 +1012,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1024,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1039,26 +1045,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
+      <c r="G1" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1072,16 +1078,16 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1094,7 +1100,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1112,38 +1118,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
+      <c r="J1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1157,10 +1163,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -1172,13 +1178,13 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1192,10 +1198,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -1204,13 +1210,13 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1224,22 +1230,22 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1253,10 +1259,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -1265,10 +1271,10 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -1282,22 +1288,22 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1311,10 +1317,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -1323,13 +1329,14 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1338,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1347,29 +1354,29 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="29.81640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19" style="3" customWidth="1"/>
     <col min="6" max="6" width="55.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>44</v>
+      <c r="F1" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
@@ -1383,13 +1390,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/OCMAgentInteractionReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAgentInteractionReportData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FF45B2-2CB2-4594-8FCF-45336CD4D1AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B2FD54-9209-4D39-8E69-A49CA6008BAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="50">
   <si>
     <t>Report Channel</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Does not contain</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
   <si>
     <t>Starts with</t>
@@ -211,25 +208,37 @@
     <t>23-06-2021 00:00:00</t>
   </si>
   <si>
-    <t>Email Agent1</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
-    <t>50103</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>Email Team</t>
+    <t>50093</t>
+  </si>
+  <si>
+    <t>14-07-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>Palak Garg</t>
+  </si>
+  <si>
+    <t>Gar</t>
+  </si>
+  <si>
+    <t>Pal</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>Palak</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>Sheela</t>
   </si>
 </sst>
 </file>
@@ -581,16 +590,16 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -604,10 +613,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -618,10 +627,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -634,23 +643,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -676,10 +685,10 @@
         <v>13</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -690,10 +699,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -702,13 +711,13 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -719,10 +728,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -731,10 +740,10 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -745,10 +754,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -757,10 +766,10 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -771,10 +780,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -783,10 +792,10 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -797,10 +806,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -809,10 +818,10 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -823,10 +832,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -835,7 +844,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -852,16 +861,16 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -875,10 +884,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,10 +898,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -908,17 +917,17 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
-    <col min="5" max="5" width="26.1796875" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -935,10 +944,10 @@
         <v>7</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,13 +958,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -967,21 +976,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -998,10 +1007,10 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1018,7 +1027,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1031,20 +1040,20 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.54296875" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1064,10 +1073,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1078,16 +1087,16 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1100,24 +1109,24 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="6" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="6" width="19.77734375" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" customWidth="1"/>
-    <col min="11" max="11" width="15.7265625" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1146,13 +1155,13 @@
         <v>13</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1163,10 +1172,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -1178,16 +1187,16 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1198,10 +1207,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -1213,13 +1222,13 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1230,25 +1239,25 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1259,10 +1268,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -1274,10 +1283,10 @@
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1288,25 +1297,25 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1317,10 +1326,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -1329,10 +1338,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1349,17 +1358,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="29.81640625" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="3" customWidth="1"/>
     <col min="5" max="5" width="19" style="3" customWidth="1"/>
-    <col min="6" max="6" width="55.1796875" customWidth="1"/>
+    <col min="6" max="6" width="55.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1376,10 +1385,10 @@
         <v>7</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1390,13 +1399,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/OCMAgentInteractionReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAgentInteractionReportData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B2FD54-9209-4D39-8E69-A49CA6008BAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE4E06C-CE3A-4A58-A5CE-98BF414B315B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="47">
   <si>
     <t>Report Channel</t>
   </si>
@@ -126,11 +126,50 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>05-11-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>15-11-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>Amy M</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>bot</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Am</t>
+  </si>
+  <si>
+    <t>50082</t>
   </si>
   <si>
     <t>SELECT M.[AgentID] as [Agent ID],A.[AgentName] as [Agent Name],A.[SupervisorName] as [Supervisor Name],[Channel],[Direction],[DNIS] as [Local Party],
 [Ani] as [Remote Party],FORMAT([dbo].[VARCHARTODATETIME](M.ConnectedDateTime),'dd/MM/yyyy HH:mm:ss') as [Interaction Connected Date Time],
-FORMAT([dbo].[VARCHARTODATETIME](M.[CreatedDateTime]),'dd/MM/yyyy HH:mm:ss') as [Created Date Time],[SessionID] as [Session ID],CONVERT(varchar, DATEADD(ms, M.QueueTime* 1000, 0), 108) as [Queue Time],
+[SessionID] as [Session ID],CONVERT(varchar, DATEADD(ms, M.QueueTime* 1000, 0), 108) as [Queue Time],
 CONVERT(varchar, DATEADD(ms, M.ActiveTime* 1000, 0), 108) as [Active Time],
 CONVERT(varchar, DATEADD(ms, M.HoldTime* 1000, 0), 108) as [Hold Time],
 CONVERT(varchar, DATEADD(ms, M.ACWTime* 1000, 0), 108) as [ACW Time],
@@ -154,7 +193,6 @@
 							SubSessionId as SubSessionID,
 							InteractionId as InteractionID,
 							T.Direction,
-							CreatedDateTime,
 							CreatedReason,
 							Skill,
 							TS.SkillName,
@@ -191,54 +229,6 @@
 							AND  ClosedDateTime&gt;='ReportBeforeDate' AND ClosedDateTime&lt;='ReportAfterDate') M
                             INNER JOIN  fn_AgentHierarchy('na','1','1') A  ON A.AgentId=M.AgentID
 							order by M.[ClosedDateTime];</t>
-  </si>
-  <si>
-    <t>DeleteReason</t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
-    <t>21-06-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>14-06-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>23-06-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>50093</t>
-  </si>
-  <si>
-    <t>14-07-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>Palak Garg</t>
-  </si>
-  <si>
-    <t>Gar</t>
-  </si>
-  <si>
-    <t>Pal</t>
-  </si>
-  <si>
-    <t>ET</t>
-  </si>
-  <si>
-    <t>Palak</t>
-  </si>
-  <si>
-    <t>Voice</t>
-  </si>
-  <si>
-    <t>Sheela</t>
   </si>
 </sst>
 </file>
@@ -587,7 +577,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -630,7 +620,7 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +675,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -699,10 +689,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -711,10 +701,10 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -728,10 +718,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -740,7 +730,7 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -754,10 +744,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -766,7 +756,7 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -780,10 +770,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -792,7 +782,7 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -806,10 +796,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -818,7 +808,7 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -832,10 +822,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -844,7 +834,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -858,7 +848,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -901,7 +891,7 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +904,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,7 +934,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -958,13 +948,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -976,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1007,7 +997,7 @@
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1021,13 +1011,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +1030,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1073,7 +1063,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1087,16 +1077,16 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1109,7 +1099,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,10 +1162,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -1187,13 +1177,13 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1207,10 +1197,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -1222,10 +1212,10 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
         <v>43</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1239,10 +1229,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -1254,7 +1244,7 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1268,10 +1258,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -1283,7 +1273,7 @@
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1297,10 +1287,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -1312,7 +1302,7 @@
         <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1326,10 +1316,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -1341,7 +1331,7 @@
         <v>27</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1354,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1399,13 +1389,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
